--- a/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B81F1AC-D9B2-49DC-9022-601ACA7A1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EEFAD2-1886-41A2-8FDB-141FD6BC4843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF09A022-2D68-4979-B679-6618E82BA9CC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F80A2D79-7EAF-48A6-92BC-4999EAE56AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,427 +74,427 @@
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>9,22%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>37,5%</t>
   </si>
   <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>61,83%</t>
   </si>
   <si>
-    <t>59,78%</t>
+    <t>59,7%</t>
   </si>
   <si>
     <t>64,06%</t>
@@ -503,19 +503,19 @@
     <t>51,29%</t>
   </si>
   <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92BC49E-C4B8-4E52-9271-F3104355AA11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3CA452-E482-4107-9032-C4D5853DEE80}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1255,7 +1255,7 @@
         <v>689</v>
       </c>
       <c r="D8" s="7">
-        <v>540140</v>
+        <v>540139</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>

--- a/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EEFAD2-1886-41A2-8FDB-141FD6BC4843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3734CF-1D2D-4A2B-8620-1B9D87197AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F80A2D79-7EAF-48A6-92BC-4999EAE56AD5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D27E6973-D579-40AD-92C2-74E0F729EA6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3CA452-E482-4107-9032-C4D5853DEE80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15741F7C-5FA7-4950-8AEC-387A541DB808}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3734CF-1D2D-4A2B-8620-1B9D87197AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B3F38E-535C-4CB2-9E07-913600FDAE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D27E6973-D579-40AD-92C2-74E0F729EA6A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{234D9FB4-F4F1-4FE5-AEA3-1DB253A2340F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,427 +74,427 @@
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
     <t>5,16%</t>
   </si>
   <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>9,14%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>37,5%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>61,83%</t>
   </si>
   <si>
-    <t>59,7%</t>
+    <t>59,78%</t>
   </si>
   <si>
     <t>64,06%</t>
@@ -503,19 +503,19 @@
     <t>51,29%</t>
   </si>
   <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15741F7C-5FA7-4950-8AEC-387A541DB808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A670FD-9586-4B9E-A459-789C0BB7DF44}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1255,7 +1255,7 @@
         <v>689</v>
       </c>
       <c r="D8" s="7">
-        <v>540139</v>
+        <v>540140</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>

--- a/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B3F38E-535C-4CB2-9E07-913600FDAE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11F3D78-B35E-483C-8535-7D969F2111B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{234D9FB4-F4F1-4FE5-AEA3-1DB253A2340F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0BF87F56-B03B-4ED2-8FC6-AF74971203F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -71,121 +71,121 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
   </si>
   <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,328 +194,316 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>53,48%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>62,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A670FD-9586-4B9E-A459-789C0BB7DF44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAA3E92-F758-4B61-9B4B-2CF370D7843E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1051,7 +1039,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>26473</v>
+        <v>24207</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1066,7 +1054,7 @@
         <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>57891</v>
+        <v>51381</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1081,7 +1069,7 @@
         <v>130</v>
       </c>
       <c r="N4" s="7">
-        <v>84364</v>
+        <v>75588</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1102,7 +1090,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="7">
-        <v>69636</v>
+        <v>62629</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1117,7 +1105,7 @@
         <v>228</v>
       </c>
       <c r="I5" s="7">
-        <v>132527</v>
+        <v>117034</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1132,7 +1120,7 @@
         <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>202163</v>
+        <v>179663</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1153,7 +1141,7 @@
         <v>233</v>
       </c>
       <c r="D6" s="7">
-        <v>179122</v>
+        <v>168101</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1168,7 +1156,7 @@
         <v>582</v>
       </c>
       <c r="I6" s="7">
-        <v>349517</v>
+        <v>311269</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1183,7 +1171,7 @@
         <v>815</v>
       </c>
       <c r="N6" s="7">
-        <v>528639</v>
+        <v>479370</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1204,7 +1192,7 @@
         <v>333</v>
       </c>
       <c r="D7" s="7">
-        <v>264908</v>
+        <v>258598</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1219,7 +1207,7 @@
         <v>508</v>
       </c>
       <c r="I7" s="7">
-        <v>289072</v>
+        <v>269635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1234,7 +1222,7 @@
         <v>841</v>
       </c>
       <c r="N7" s="7">
-        <v>553980</v>
+        <v>528233</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1255,7 +1243,7 @@
         <v>689</v>
       </c>
       <c r="D8" s="7">
-        <v>540140</v>
+        <v>513535</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1270,7 +1258,7 @@
         <v>1416</v>
       </c>
       <c r="I8" s="7">
-        <v>829006</v>
+        <v>749320</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1285,7 +1273,7 @@
         <v>2105</v>
       </c>
       <c r="N8" s="7">
-        <v>1369146</v>
+        <v>1262855</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1308,7 +1296,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="7">
-        <v>40435</v>
+        <v>36632</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1323,7 +1311,7 @@
         <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>43852</v>
+        <v>39150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1338,7 +1326,7 @@
         <v>105</v>
       </c>
       <c r="N9" s="7">
-        <v>84287</v>
+        <v>75781</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1359,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="7">
-        <v>108159</v>
+        <v>99056</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1374,31 +1362,31 @@
         <v>201</v>
       </c>
       <c r="I10" s="7">
-        <v>141918</v>
+        <v>124911</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>314</v>
       </c>
       <c r="N10" s="7">
-        <v>250077</v>
+        <v>223967</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,46 +1398,46 @@
         <v>655</v>
       </c>
       <c r="D11" s="7">
-        <v>644569</v>
+        <v>594012</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>1065</v>
       </c>
       <c r="I11" s="7">
-        <v>868176</v>
+        <v>883526</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1720</v>
       </c>
       <c r="N11" s="7">
-        <v>1512745</v>
+        <v>1477538</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,46 +1449,46 @@
         <v>1174</v>
       </c>
       <c r="D12" s="7">
-        <v>1362036</v>
+        <v>1554288</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1589</v>
       </c>
       <c r="I12" s="7">
-        <v>1192373</v>
+        <v>1187248</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2763</v>
       </c>
       <c r="N12" s="7">
-        <v>2554409</v>
+        <v>2741536</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,7 +1500,7 @@
         <v>1986</v>
       </c>
       <c r="D13" s="7">
-        <v>2155199</v>
+        <v>2283988</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1527,7 +1515,7 @@
         <v>2916</v>
       </c>
       <c r="I13" s="7">
-        <v>2246319</v>
+        <v>2234834</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1542,7 +1530,7 @@
         <v>4902</v>
       </c>
       <c r="N13" s="7">
-        <v>4401518</v>
+        <v>4518822</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1556,7 +1544,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,46 +1553,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>8351</v>
+        <v>7946</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>8340</v>
+        <v>7489</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
       </c>
       <c r="N14" s="7">
-        <v>16691</v>
+        <v>15435</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,46 +1604,46 @@
         <v>19</v>
       </c>
       <c r="D15" s="7">
-        <v>17036</v>
+        <v>15654</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>40079</v>
+        <v>36277</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>65</v>
       </c>
       <c r="N15" s="7">
-        <v>57115</v>
+        <v>51932</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,46 +1655,46 @@
         <v>196</v>
       </c>
       <c r="D16" s="7">
-        <v>191534</v>
+        <v>178320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>285</v>
       </c>
       <c r="I16" s="7">
-        <v>203131</v>
+        <v>183403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>481</v>
       </c>
       <c r="N16" s="7">
-        <v>394665</v>
+        <v>361723</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,46 +1706,46 @@
         <v>457</v>
       </c>
       <c r="D17" s="7">
-        <v>455082</v>
+        <v>443687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>658</v>
       </c>
       <c r="I17" s="7">
-        <v>461550</v>
+        <v>432554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>1115</v>
       </c>
       <c r="N17" s="7">
-        <v>916633</v>
+        <v>876241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1757,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>672003</v>
+        <v>645607</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1784,7 +1772,7 @@
         <v>1003</v>
       </c>
       <c r="I18" s="7">
-        <v>713100</v>
+        <v>659724</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1799,7 +1787,7 @@
         <v>1683</v>
       </c>
       <c r="N18" s="7">
-        <v>1385104</v>
+        <v>1305331</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1822,46 +1810,46 @@
         <v>84</v>
       </c>
       <c r="D19" s="7">
-        <v>75259</v>
+        <v>68786</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>173</v>
       </c>
       <c r="I19" s="7">
-        <v>110082</v>
+        <v>98020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>257</v>
       </c>
       <c r="N19" s="7">
-        <v>185342</v>
+        <v>166805</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,46 +1861,46 @@
         <v>223</v>
       </c>
       <c r="D20" s="7">
-        <v>194831</v>
+        <v>177339</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>475</v>
       </c>
       <c r="I20" s="7">
-        <v>314524</v>
+        <v>278223</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>698</v>
       </c>
       <c r="N20" s="7">
-        <v>509355</v>
+        <v>455562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,46 +1912,46 @@
         <v>1084</v>
       </c>
       <c r="D21" s="7">
-        <v>1015225</v>
+        <v>940432</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>1932</v>
       </c>
       <c r="I21" s="7">
-        <v>1420824</v>
+        <v>1378198</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>3016</v>
       </c>
       <c r="N21" s="7">
-        <v>2436049</v>
+        <v>2318631</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,46 +1963,46 @@
         <v>1964</v>
       </c>
       <c r="D22" s="7">
-        <v>2082026</v>
+        <v>2256573</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>2755</v>
       </c>
       <c r="I22" s="7">
-        <v>1942995</v>
+        <v>1889437</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>4719</v>
       </c>
       <c r="N22" s="7">
-        <v>4025021</v>
+        <v>4146010</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2014,7 @@
         <v>3355</v>
       </c>
       <c r="D23" s="7">
-        <v>3367342</v>
+        <v>3443130</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2041,7 +2029,7 @@
         <v>5335</v>
       </c>
       <c r="I23" s="7">
-        <v>3788426</v>
+        <v>3643877</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2056,7 +2044,7 @@
         <v>8690</v>
       </c>
       <c r="N23" s="7">
-        <v>7155767</v>
+        <v>7087008</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2070,7 +2058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
